--- a/wwwroot/file/ErrorUpload.xlsx
+++ b/wwwroot/file/ErrorUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iei19080026\Downloads\Fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D17512EA-B868-4E6B-BC1B-909FB8C93279}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A1B07-E7D1-4884-BB4A-F0768F183D75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{933761D9-D711-4E5D-9347-D7FE2CCD959B}"/>
   </bookViews>
@@ -31,11 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>NIK</t>
+  </si>
+  <si>
     <t>NAMA</t>
   </si>
   <si>
@@ -48,7 +51,7 @@
     <t>JML DRIVER</t>
   </si>
   <si>
-    <t>Format tidak valid</t>
+    <t>gapok</t>
   </si>
   <si>
     <t>TUNJANGAN GP</t>
@@ -85,6 +88,9 @@
   </si>
   <si>
     <t>NOREK</t>
+  </si>
+  <si>
+    <t>Perhitungan Keliru, silahkan periksa kembali</t>
   </si>
   <si>
     <t>FELIX TRISUSANTO DAHURI</t>
@@ -423,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,11 +458,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -569,9 +570,6 @@
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -903,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08438FDA-A9BF-4F3B-A991-7186614AEB5A}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,74 +915,76 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="15.75">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>1717</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="20">
         <v>67</v>
@@ -1022,7 +1022,7 @@
         <v>4476174.399999999</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="15.75">
@@ -1031,13 +1031,13 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="20">
         <v>82</v>
@@ -1075,24 +1075,24 @@
         <v>4326349.079999999</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="15.75">
-      <c r="A4" s="2">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>1734</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="20">
         <v>21</v>
@@ -1130,24 +1130,24 @@
         <v>3443200</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.75">
-      <c r="A5" s="2">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>1714</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="20">
         <v>91</v>
@@ -1183,24 +1183,24 @@
         <v>3962170</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="15.75">
-      <c r="A6" s="2">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>1926</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="3"/>
@@ -1232,24 +1232,24 @@
         <v>700000</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="15.75">
-      <c r="A7" s="2">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1416</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="20">
         <v>153.5</v>
@@ -1287,7 +1287,7 @@
         <v>7216336.957883872</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="15.75">
@@ -1296,13 +1296,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="20">
         <v>22</v>
@@ -1340,24 +1340,24 @@
         <v>4644170.239999999</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="2">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>1719</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="20">
         <v>28</v>
@@ -1395,24 +1395,24 @@
         <v>3890488</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" ht="15.75">
-      <c r="A10" s="2">
-        <v>9</v>
+      <c r="A10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>1721</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="20">
         <v>122.5</v>
@@ -1448,24 +1448,24 @@
         <v>4537777.430400001</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="15.75">
-      <c r="A11" s="2">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>1741</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="20">
         <v>115</v>
@@ -1503,7 +1503,7 @@
         <v>4002624</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="15.75">
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="20">
         <v>73</v>
@@ -1558,24 +1558,24 @@
         <v>3574605.5</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" ht="15.75">
-      <c r="A13" s="2">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>2177</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3">
@@ -1609,24 +1609,24 @@
         <v>4858269.106200001</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="15.75">
-      <c r="A14" s="2">
-        <v>13</v>
+      <c r="A14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>2506</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3">
@@ -1664,20 +1664,20 @@
       </c>
     </row>
     <row r="15" ht="15.75">
-      <c r="A15" s="2">
-        <v>14</v>
+      <c r="A15" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>2509</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3">
@@ -1709,24 +1709,24 @@
         <v>3551681.92</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" ht="15.75">
-      <c r="A16" s="2">
-        <v>15</v>
+      <c r="A16" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>2507</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3">
@@ -1758,7 +1758,7 @@
         <v>3896672.3200000003</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="15.75">
@@ -1767,13 +1767,13 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3">
@@ -1795,7 +1795,7 @@
         <v>2069530</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" ht="15.75">
@@ -1804,13 +1804,13 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3">
@@ -1836,7 +1836,7 @@
         <v>2985096.7741935486</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" ht="15.75">
@@ -1845,13 +1845,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3">
@@ -1873,24 +1873,24 @@
         <v>2173050.580645161</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" ht="15.75">
-      <c r="A20" s="2">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>2751</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3">
@@ -1916,7 +1916,7 @@
         <v>994933.0051612903</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="15.75">
@@ -1941,20 +1941,20 @@
       <c r="S21" s="12"/>
     </row>
     <row r="22" ht="15.75">
-      <c r="A22" s="2">
-        <v>1</v>
+      <c r="A22" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>1725</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3">
@@ -1990,20 +1990,20 @@
       </c>
     </row>
     <row r="23" ht="15.75">
-      <c r="A23" s="2">
-        <v>2</v>
+      <c r="A23" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>1726</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3">
@@ -2041,20 +2041,20 @@
       </c>
     </row>
     <row r="24" ht="15.75">
-      <c r="A24" s="2">
-        <v>3</v>
+      <c r="A24" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B24" s="2">
         <v>1727</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="3">
@@ -2088,20 +2088,20 @@
       </c>
     </row>
     <row r="25" ht="15.75">
-      <c r="A25" s="2">
-        <v>4</v>
+      <c r="A25" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B25" s="2">
         <v>1724</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2">
         <v>45.5</v>
@@ -2141,20 +2141,20 @@
       </c>
     </row>
     <row r="26" ht="15.75">
-      <c r="A26" s="2">
-        <v>5</v>
+      <c r="A26" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B26" s="2">
         <v>1728</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="3">
@@ -2190,20 +2190,20 @@
       </c>
     </row>
     <row r="27" ht="15.75">
-      <c r="A27" s="2">
-        <v>6</v>
+      <c r="A27" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>1729</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="3">
@@ -2237,24 +2237,24 @@
         <v>4106379.5199999996</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="15.75">
-      <c r="A28" s="2">
-        <v>7</v>
+      <c r="A28" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B28" s="2">
         <v>1723</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2">
         <v>45.5</v>
@@ -2290,24 +2290,24 @@
         <v>5491105.56</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="15.75">
-      <c r="A29" s="2">
-        <v>8</v>
+      <c r="A29" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B29" s="2">
         <v>1731</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="3">
@@ -2347,20 +2347,20 @@
       </c>
     </row>
     <row r="30" ht="15.75">
-      <c r="A30" s="2">
-        <v>9</v>
+      <c r="A30" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B30" s="2">
         <v>1991</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="3">
@@ -2394,24 +2394,24 @@
         <v>12128750</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="15.75">
-      <c r="A31" s="2">
-        <v>10</v>
+      <c r="A31" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B31" s="2">
         <v>2134</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="3">
@@ -2443,24 +2443,24 @@
         <v>6293016.88</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" ht="15.75">
-      <c r="A32" s="2">
-        <v>11</v>
+      <c r="A32" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B32" s="2">
         <v>2508</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3">
@@ -2488,7 +2488,7 @@
         <v>2880000</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" ht="15.75">
@@ -2497,13 +2497,13 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3">
@@ -2535,20 +2535,20 @@
       </c>
     </row>
     <row r="34" ht="15.75">
-      <c r="A34" s="2">
-        <v>13</v>
+      <c r="A34" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B34" s="2">
         <v>2744</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="17">
@@ -2576,24 +2576,24 @@
         <v>3454804.6399999997</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" ht="15.75">
-      <c r="A35" s="2">
-        <v>14</v>
+      <c r="A35" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B35" s="2">
         <v>2745</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3">
@@ -2621,24 +2621,24 @@
         <v>4606399.52</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" ht="15.75">
-      <c r="A36" s="2">
-        <v>15</v>
+      <c r="A36" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B36" s="2">
         <v>2747</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="17">
@@ -2666,7 +2666,7 @@
         <v>3454804.6399999997</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" ht="15.75">
@@ -2677,13 +2677,13 @@
         <v>2748</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="17">
@@ -2705,7 +2705,7 @@
         <v>2120000</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
